--- a/results/hunter_result.xlsx
+++ b/results/hunter_result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Security file\chunsou\最终版本\chunsou_v1.3\chunsou_github_version_1.3\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Security file\chunsou\最终版本\chunsou_v1.3\chunsou_annotated_version_1.3\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C816E158-0112-47A1-B1CB-85CA0141FEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DB1446-E499-412D-AB6F-F9912CD96CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,25 +447,25 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="50.44140625" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="135.5546875" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="8.44140625" customWidth="1"/>
     <col min="8" max="9" width="7.21875" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="4.77734375" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6">
